--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4368B3-7CAF-4DEC-9123-579C4595D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD825620-CB36-4166-952F-F108A5EBB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17025" windowHeight="18360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="4" r:id="rId1"/>
+    <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
     <sheet name="Data" sheetId="5" r:id="rId4"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD825620-CB36-4166-952F-F108A5EBB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C78C728-72B6-42E7-AF13-79D685CAFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="5" r:id="rId4"/>
+    <sheet name="Data table" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -298,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,9 +338,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,26 +373,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,26 +408,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -978,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2BD13-A44A-4975-95A6-A8F0A1992663}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C78C728-72B6-42E7-AF13-79D685CAFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED8810-C58F-44B8-BB2F-57C94F2552A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15660" yWindow="7920" windowWidth="20625" windowHeight="15090" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
-    <sheet name="Data table" sheetId="5" r:id="rId4"/>
+    <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -945,7 +945,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED8810-C58F-44B8-BB2F-57C94F2552A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8865E6-9D4D-4CD4-9C07-9C741ABD2992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="7920" windowWidth="20625" windowHeight="15090" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>type</t>
   </si>
@@ -97,9 +97,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>FIGURES</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
@@ -109,15 +106,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>precision</t>
   </si>
   <si>
@@ -212,6 +200,21 @@
   </si>
   <si>
     <t>2002Q4</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>figures</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -606,15 +609,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -622,26 +625,26 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -651,7 +654,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1"/>
     </row>
@@ -687,7 +690,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -695,7 +698,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -711,27 +714,27 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -739,7 +742,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -753,10 +756,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -766,58 +769,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -825,33 +828,39 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -860,14 +869,17 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:8">
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -901,10 +913,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -915,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -929,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -944,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2BD13-A44A-4975-95A6-A8F0A1992663}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,10 +980,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -979,10 +991,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -990,10 +1002,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1001,10 +1013,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1012,10 +1024,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1023,10 +1035,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1034,10 +1046,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1045,10 +1057,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1056,10 +1068,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1067,10 +1079,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1078,10 +1090,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1089,10 +1101,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1100,10 +1112,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1111,10 +1123,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1122,10 +1134,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1133,10 +1145,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>16</v>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8865E6-9D4D-4CD4-9C07-9C741ABD2992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C50A7C-FB94-4F56-8010-2337CB92320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9615" yWindow="3735" windowWidth="24210" windowHeight="21645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -163,15 +163,6 @@
     <t>AXIS-VERSION</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>en_long_name</t>
-  </si>
-  <si>
-    <t>en_code_label</t>
-  </si>
-  <si>
     <t>TIMEVAL</t>
   </si>
   <si>
@@ -215,6 +206,15 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>variable-code</t>
+  </si>
+  <si>
+    <t>en_variable-label</t>
+  </si>
+  <si>
+    <t>en_code-label</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -771,15 +771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -788,16 +788,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -890,21 +890,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -913,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>27</v>
@@ -941,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>16</v>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD6CDB-787B-458A-8E20-CB39300A6140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB24ADA0-4D30-4199-83EB-58E93FF55719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="6240" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Table2" sheetId="2" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Codelists" sheetId="4" r:id="rId4"/>
+    <sheet name="Cells" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB24ADA0-4D30-4199-83EB-58E93FF55719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3624BC-DBA1-4639-A516-C68882FC9FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="6240" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="4500" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>variable-code</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>en_variable-label</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>en_note</t>
+  </si>
+  <si>
+    <t>variable-type</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{ACC2AB92-4D2F-4CAF-B2A9-9AA4D1E1F915}" name="en_note"/>
   </tableColumns>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,58 +773,58 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -861,41 +861,41 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -924,10 +924,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -935,10 +935,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1100,10 +1100,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>16</v>

--- a/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_error_two_timevals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3624BC-DBA1-4639-A516-C68882FC9FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7339FDE8-AF46-4D8E-959C-3DDAADBAB606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4500" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19005" yWindow="3960" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>keyword</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>variable-type</t>
+  </si>
+  <si>
+    <t>timeval</t>
   </si>
 </sst>
 </file>
@@ -258,13 +261,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
+    <tableColumn id="7" xr3:uid="{920D4570-98A0-4FD6-9DF9-5245453F6844}" name="timeval"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{ACC2AB92-4D2F-4CAF-B2A9-9AA4D1E1F915}" name="en_note"/>
   </tableColumns>
@@ -747,10 +751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,11 +762,11 @@
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -776,13 +780,16 @@
         <v>51</v>
       </c>
       <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -792,14 +799,14 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -809,21 +816,24 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
     </row>
